--- a/Proposal/Consecuencias del cambio climático sobre los cultivos.xlsx
+++ b/Proposal/Consecuencias del cambio climático sobre los cultivos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amigo\Documents\GitHub\PlantingDates\Proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\PlantingDates\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Consecuencias de origen abiótico del cambio climático sobre los cultivos</t>
   </si>
@@ -226,12 +226,15 @@
   <si>
     <t>Acumulación de químicos en suelo y cultivos, afectando crecimiento, calidad y seguridad del producto.</t>
   </si>
+  <si>
+    <t>How social and economic policies have affected the genome of mezcal agaves: the contrasting stories of Bacanora and Espadín | bioRxiv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +257,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,10 +283,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,17 +301,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,35 +594,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="84" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="61.77734375" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="58.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -628,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -638,7 +652,7 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -648,7 +662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,17 +672,17 @@
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -678,17 +692,17 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="360" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -698,25 +712,28 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="G8" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -724,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -732,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -746,7 +763,10 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1" display="https://www.biorxiv.org/content/10.1101/2025.04.30.651404v1.abstract"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>